--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_02_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_02_beg.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">After taking care of their "comrades," W, Hoederer, and Ines decide to split their forces. W and Ines meet first, exchanging words before crossing swords. At this time, the transport team quietly arrives.
+    <t xml:space="preserve">After taking care of their 'comrades,' W, Hoederer, and Ines decide to split their forces. W and Ines meet first, exchanging words before crossing swords. At this time, the transport team quietly arrives.
 </t>
   </si>
   <si>
